--- a/chat_ml/Data/chatbotdata.xlsx
+++ b/chat_ml/Data/chatbotdata.xlsx
@@ -93,16 +93,16 @@
   </si>
   <si>
     <t xml:space="preserve">We have clients in the domains of-
-    Aerospace,
-    Insurance and social,
-    Banking(Ask me more on this),
-    Defence,
-    Homeland Security,
-    Public Sector and Healthcare,
-    Telecommunications, media and entertainment,
-    Transport,
-    Retail,
-    Energy utilities.
+    1) Aerospace,
+    2) Insurance and social,
+    3) Banking(Ask me more on this),
+    4) Defence,
+    5) Homeland Security,
+    6) Public Sector and Healthcare,
+    7) Telecommunications, media and entertainment,
+    8) Transport,
+    9) Retail,
+    10) Energy utilities.
 </t>
   </si>
   <si>
@@ -113,15 +113,15 @@
   </si>
   <si>
     <t xml:space="preserve">Sopra steria offers services in -
-Social Business,
-Mobility,
-Big Data,
-Internet of Things,
-Smart Cities,
-Cloud,
-Cybersecurity,
-Enterprise Resource Planning (ERP),
-Banking Solutions.
+1) Social Business,
+2) Mobility,
+3) Big Data,
+4) Internet of Things,
+5) Smart Cities,
+6) Cloud,
+7) Cybersecurity,
+8) Enterprise Resource Planning (ERP),
+9) Banking Solutions.
 You can ask me more about any of the things listed above. I will be happy to help.</t>
   </si>
   <si>
@@ -132,29 +132,29 @@
   </si>
   <si>
     <t xml:space="preserve">We offer our clients the following:
-    Proximity: an extended network of service centres to be ever closer to our customers
-    Agility: a pragmatic approach that allows for short development cycles and regular, safe production runs (Devops)
-    Commitment: technical and business KPIs (key performance indicators) aligned with your business challenges
-    Service quality: compliance with market standards (ISO, CMMI, ITIL, etc.) combined with a continuous improvement programme (Lean IT)
-    Pay per use: flexible billing to prevent waste and minimise costs
-    Delivery: an integrated production model of Onshore/Nearshore/Offshore to optimise costs
-    Industrialisation: a service catalogue, method and industrial tools (Forge, Continuous Integration Platform, Testing)
-    Business expertise: knowledge of diverse sectors enabling us to adapt to industry-specific challenges.</t>
+    1) Proximity: an extended network of service centres to be ever closer to our customers, 
+    2) Agility: a pragmatic approach that allows for short development cycles and regular, safe production runs (Devops), 
+    3) Commitment: technical and business KPIs (key performance indicators) aligned with your business challenges, 
+    4) Service quality: compliance with market standards (ISO, CMMI, ITIL, etc.) combined with a continuous improvement programme (Lean IT), 
+    5) Pay per use: flexible billing to prevent waste and minimise costs, 
+    6)Delivery: an integrated production model of Onshore/Nearshore/Offshore to optimise costs, 
+    7) Industrialisation: a service catalogue, method and industrial tools (Forge, Continuous Integration Platform, Testing), 
+    8) Business expertise: knowledge of diverse sectors enabling us to adapt to industry-specific challenges.</t>
   </si>
   <si>
     <t xml:space="preserve">Software</t>
   </si>
   <si>
-    <t xml:space="preserve">what are the softwares made by sopra steria, what are the products of sopra steria, Tell me about softwares,what does sopra steria make</t>
+    <t xml:space="preserve">what are the softwares made by sopra steria, what are the products of sopra steria, Tell me about softwares,what does sopra steria make,what are the softwares you offer</t>
   </si>
   <si>
     <t xml:space="preserve">
 Sopra Steria makes its specialized business expertise available to clients through Banking and finance, Human Resource, and Property Management application solutions.
 Our role: To build, together with you, high performance solutions in harmony with the development policy of your company. You will benefit from the state of the art in the area of information technologies, know-how, and expertise.
 Sopra Steria customizes and deploys its application solutions:
-    Sopra Banking Software for the banking and financial sector
-    Sopra HR Software  for Human Resources
-    A software suite for Property Management</t>
+    1) Sopra Banking Software for the banking and financial sector(Ask me more on this), 
+    2) Sopra HR Software  for Human Resources, 
+    3) A software suite for Property Management.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.soprasteria.com/en/solutions/software</t>
@@ -163,10 +163,10 @@
     <t xml:space="preserve">Solutions</t>
   </si>
   <si>
-    <t xml:space="preserve">What are the solutions you provide, how can you help me in my business, what do you provide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We provide various solutions catering to your business needs- Consulting, Testing, Software, Applications Management, Business Process Services
+    <t xml:space="preserve">What are the solutions you provide, how can you help me in my business, what do you provide, what are the solutions you offer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We provide various solutions catering to your business needs- 1) Consulting, 2) Testing, 3) Software, 4) Applications Management, 5) Business Process Services.
 You can ask me more about the sevices listed above.
 In addition to this we also provide-
 PLM-CIMPA Infrastructure Management and  Systems integration</t>
@@ -196,14 +196,7 @@
     <t xml:space="preserve">when was sopra steria founded, when the merger of sopra and steria happened, history of sopra steria, milestones,when was sopra steria started, when was sopra steria founded</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Sopra was merged with Steria in 2014.
+    <t xml:space="preserve">Sopra was merged with Steria in 2014.
 Here is our combined brief history-
 1968
 Sopra founded
@@ -228,18 +221,7 @@
 Groupe Steria Share Delisted from Euronext Paris
 Merger by absorption of Groupe Steria into Sopra Steria Group
 you can find our full history at-
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.soprasteria.com/en/group/history</t>
-    </r>
+https://www.soprasteria.com/en/group/history</t>
   </si>
   <si>
     <t xml:space="preserve">Corporate_Social_Responsibility</t>
@@ -297,9 +279,9 @@
   </si>
   <si>
     <t xml:space="preserve">With RightTesting®, Sopra Steria, one of the leaders in the testing market, offers a comprehensive, three-phase approach:
-    Consulting Services: collaborating to define a testing strategy adapted to your specific challenges, and backed by a business case and roadmap to facilitate decision-making and optimise your investments
-    Transformation Services: implementing the roadmap as part of a transformation process that includes change management
-    Managed Services: producing consistent services, on your premises or in a pooled expertise centre, based on processes that are industrialised through an ongoing improvement approach.
+    1) Consulting Services: collaborating to define a testing strategy adapted to your specific challenges, and backed by a business case and roadmap to facilitate decision-making and optimise your investments
+    2) Transformation Services: implementing the roadmap as part of a transformation process that includes change management
+    3) Managed Services: producing consistent services, on your premises or in a pooled expertise centre, based on processes that are industrialised through an ongoing improvement approach.
 Our all-inclusive Testing and Quality Assurance procedure relies on a pragmatic approach and a tool-based methodology with technology partners. It is founded on risk-based testing (RBT). Guided by industrial standards (e.g. TMMi3 and ISTQB certification) and decades of experience, we assess testing operations and transform them if necessary.</t>
   </si>
   <si>
@@ -322,12 +304,12 @@
   </si>
   <si>
     <t xml:space="preserve">Sopra Steria designs and deploys corporate social networks in response to specific issues:
-    Internal communication: to inform and strengthen the sense of belonging to the company
-    Employee services: centralising the company's service offering to employees (Human Resources Directors HRD, ISD, Social Services, etc.)
-    Collaborative project management: managing complex projects involving many stakeholders spread across different sites, or mobilising external partners
-    Knowledge management: preserving corporate knowledge at a time when an ageing (and retiring) population is becoming a topical issue
-    Management of information capital: accessing and sharing unstructured information produced by the company and its stakeholders
-    Management of internal communities: fostering exchange and stimulating innovation within the company
+    Internal communication: to inform and strengthen the sense of belonging to the company, 
+    Employee services: centralising the company's service offering to employees (Human Resources Directors HRD, ISD, Social Services, etc.), 
+    Collaborative project management: managing complex projects involving many stakeholders spread across different sites, or mobilising external partners, 
+    Knowledge management: preserving corporate knowledge at a time when an ageing (and retiring) population is becoming a topical issue, 
+    Management of information capital: accessing and sharing unstructured information produced by the company and its stakeholders, 
+    Management of internal communities: fostering exchange and stimulating innovation within the company, 
     Social business: organising exchanges with customers and partners to design and improve products and services.</t>
   </si>
   <si>
@@ -366,8 +348,8 @@
   </si>
   <si>
     <t xml:space="preserve">For Sopra Steria, the Internet of Things is the missing link between the real and virtual worlds and a key ingredient in its clients' digital transformation. Sopra Steria thereby supports its clients all the way along the IoT value chain as it sets up new business models: innovation, consulting, development, integration, mass production, and maintaining operational conditions, notably via two strategies:
-    A comprehensive offer from design to mass production, including support for training and transformation
-    An integrator angel approach within dynamic environments (start-ups, large companies, suppliers of technological building bricks, software publishers, research centres, schools and universities) to achieve collective objectives.
+    1) A comprehensive offer from design to mass production, including support for training and transformation,
+    2) An integrator angel approach within dynamic environments (start-ups, large companies, suppliers of technological building bricks, software publishers, research centres, schools and universities) to achieve collective objectives.
 </t>
   </si>
   <si>
@@ -380,23 +362,23 @@
     <t xml:space="preserve">Sopra Steria helps organisations to excel in cyber security and instil digital trust to protect their sensitive information and accelerate their digital development.
 With more than 700 experts in security across Europe and in our cyber-security centres, we operate a world-class human, technological and industrial strike force.
 Our overall response is organised around the entire security life-cycle:
-    Consulting: governance and risk management, audits &amp; compliance, activity recovery &amp; continuity
-    Integration of security solutions aligned with business-line processes: digital Identity and Access Management (IAM), Public Key Infrastructure (PKI), Data Loss Protection (DLP), Cloud Security and mobility
-    Managed security services: ranging from Security Operations Centre (SOC)-type operations to the detection of Advanced Persistent Threats (APT) and crisis management, based on a Managed Security Service Provider (MSSP) model.
+    1) Consulting: governance and risk management, audits &amp; compliance, activity recovery &amp; continuity,
+    2) Integration of security solutions aligned with business-line processes: digital Identity and Access Management (IAM), Public Key, Infrastructure (PKI), Data Loss Protection (DLP), Cloud Security and mobility,
+    3) Managed security services: ranging from Security Operations Centre (SOC)-type operations to the detection of Advanced Persistent Threats (APT) and crisis management, based on a Managed Security Service Provider (MSSP) model.
 </t>
   </si>
   <si>
     <t xml:space="preserve">erp</t>
   </si>
   <si>
-    <t xml:space="preserve">erp, enterprise resource planning, i need erp consulting, what are the erp solutions you offer,how can you help me with enterprise resource planning</t>
+    <t xml:space="preserve">erp, enterprise resource planning, i need erp consulting,how can you help me with enterprise resource planning</t>
   </si>
   <si>
     <t xml:space="preserve">At the heart of the company's administrative and financial management, your ERP must continuously adapt to new management challenges:
-    Improved process efficiency 
-    The company's development in response to market changes
-    Regulatory requirements; Reduced cost of ownership
-    technological innovation and opening up to other functionalities in Customer Relationship Management (CRM) Supply Chain management (SCM), SCM, Business Intelligence (BI), Human Resources (HR), Product Lifecycle Management (PLM), etc. 
+    Improved process efficiency, 
+    The company's development in response to market changes, 
+    Regulatory requirements; Reduced cost of ownership, 
+    technological innovation and opening up to other functionalities in Customer Relationship Management (CRM),  Supply Chain management (SCM), SCM, Business Intelligence (BI), Human Resources (HR), Product Lifecycle Management (PLM), etc. 
 Sopra Steria offers end-to-end ERP solutions ranging from consulting to Business Process Services via systems integration and ongoing maintenance of ERP systems</t>
   </si>
   <si>
@@ -411,10 +393,10 @@
   <si>
     <t xml:space="preserve">Sopra Steria offers a full range of services, including: consulting, systems integration, software solutions and managed services.
 This range of services is based on four main subject areas:
-    energy management: Smart Homes, Smart Buildings, Smart Grids, participation in consortiums formed to build eco-neighbourhoods, etc.
-    urban mobility: traffic management and creation of transport plans, monitoring of equipment, traveller journey and information, mobile ticketing, NFC contactless payment, etc. 
-    citizen services: participative platforms, reviewing of public services and local retail outlets, Open Data, transformation of an information system into an open service-and-data platform, partnership with Fab Labs and Living Labs, etc.
-    economic development: strategic consulting and definition of a digital road map, situation analysis (state of the art, benchmark, audits), new business models, co-innovation, consultation with start-ups, etc.
+    1) energy management: Smart Homes, Smart Buildings, Smart Grids, participation in consortiums formed to build eco-neighbourhoods, etc.
+    2) urban mobility: traffic management and creation of transport plans, monitoring of equipment, traveller journey and information, mobile ticketing, NFC contactless payment, etc. 
+    3) citizen services: participative platforms, reviewing of public services and local retail outlets, Open Data, transformation of an information system into an open service-and-data platform, partnership with Fab Labs and Living Labs, etc.
+    4) economic development: strategic consulting and definition of a digital road map, situation analysis (state of the art, benchmark, audits), new business models, co-innovation, consultation with start-ups, etc.
 </t>
   </si>
   <si>
@@ -429,10 +411,10 @@
   <si>
     <t xml:space="preserve">Sopra Steria, with its subsidiary Beamap (a consulting firm specialising in Cloud), supports and handles this major digital transformation for clients.
 Our end-to-end secure Cloud services focus on five aspects:
-    Advisory and Enablement: feasibility study; Cloud strategy; “Cloud First” policy
-    Transformation and Build: standardisation of infrastructures; Cloud architecture; private or hybrid Cloud implementation (IaaS, PaaS)
-    Cloud Service Broker: personalisation, integration and aggregation of Cloud services in the company’s IS
-    Business Solutions: rollout and integration of Cloud solutions available on the market; Sopra Steria business solutions in Software as a Service (SaaS) mode
+    Advisory and Enablement: feasibility study; Cloud strategy; “Cloud First” policy, 
+    Transformation and Build: standardisation of infrastructures; Cloud architecture; private or hybrid Cloud implementation (IaaS, PaaS), 
+    Cloud Service Broker: personalisation, integration and aggregation of Cloud services in the company’s IS,
+    Business Solutions: rollout and integration of Cloud solutions available on the market; Sopra Steria business solutions in Software as a Service (SaaS) mode, 
     Business Process as a Service (BPaaS).
 </t>
   </si>
@@ -483,7 +465,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -518,11 +500,6 @@
       <name val="Ubuntu"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -567,7 +544,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -584,7 +561,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -667,16 +648,16 @@
   </sheetPr>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.7193877551021"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.7755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.4897959183674"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -777,7 +758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="272.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>27</v>
       </c>
@@ -788,7 +769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="158.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="181.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>30</v>
       </c>
@@ -802,7 +783,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="47.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="91.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>34</v>
       </c>
@@ -835,14 +816,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="429" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -893,7 +874,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="260.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="272.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>59</v>
       </c>
@@ -918,7 +899,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="249.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="260.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>66</v>
       </c>
@@ -962,7 +943,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="249.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="260.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>78</v>
       </c>
@@ -973,7 +954,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="226.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="238.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>81</v>
       </c>
@@ -1001,7 +982,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="226.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="238.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>89</v>
       </c>
@@ -1027,7 +1008,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="260.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B30" s="0" t="s">
@@ -1058,7 +1039,7 @@
     <hyperlink ref="D10" r:id="rId3" display="https://www.soprasteria.com/en/solutions/software"/>
     <hyperlink ref="C12" r:id="rId4" display="You can ask your queriers regarding carrier opening at sopra steria from my friend at - http://sopra-chatbot.herokuapp.com/"/>
     <hyperlink ref="C13" r:id="rId5" display="Pierre Pasquier is the founder and chairman of Sopra Steria. You can know more about him from- https://en.wikipedia.org/wiki/Pierre_Pasquier"/>
-    <hyperlink ref="C14" r:id="rId6" display="https://www.soprasteria.com/en/group/history"/>
+    <hyperlink ref="C14" r:id="rId6" display="Sopra was merged with Steria in 2014.&#10;Here is our combined brief history-&#10;1968&#10;Sopra founded&#10;1969&#10;Steria founded&#10;1971-1991&#10;Banking savoir-faire initiated with the signing of the 1st major contract designed to manage banking operations in real time.&#10;Created for the AFP (Agence France Presse) an IT system designed to transmit information in real time.&#10;IPO on the French stock exchange...&#10;1991-2014&#10;Designed and built the central command system for interbank payments.&#10;Acquisition of SG2 Ingénierie and significant acceleration of growth in France.&#10;Created the company Axway Software and then successively acquired Viewlocity, Cyclone Commerce and Tumbleweed Communications in the United States.&#10;And many other  things....&#10;March 2014&#10;Announcement of the project of friendly tie-up between Sopra and Steria&#10;September 2014&#10;Creation of Sopra Steria Group: European leader in digital transformation&#10;Success of Sopra’s friendly Public Exchange Offer for Steria&#10;January 2015&#10;Formation of the Sopra HR Software subsidiary&#10;Groupe Steria Share Delisted from Euronext Paris&#10;Merger by absorption of Groupe Steria into Sopra Steria Group&#10; &#10;you can find our full history at-&#10;https://www.soprasteria.com/en/group/history"/>
     <hyperlink ref="D18" r:id="rId7" display="https://www.soprasteria.com/en/solutions/consulting"/>
     <hyperlink ref="D19" r:id="rId8" display="https://www.soprasteria.com/en/solutions/testing"/>
     <hyperlink ref="D27" r:id="rId9" display="https://www.soprasteria.com/en/offerings/smart-cities"/>

--- a/chat_ml/Data/chatbotdata.xlsx
+++ b/chat_ml/Data/chatbotdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t xml:space="preserve">Intent</t>
   </si>
@@ -34,10 +34,19 @@
     <t xml:space="preserve">links</t>
   </si>
   <si>
+    <t xml:space="preserve">undefined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorry, I couldn't understand. You can rephrase your query or check for spelling mistakes</t>
+  </si>
+  <si>
     <t xml:space="preserve">About</t>
   </si>
   <si>
-    <t xml:space="preserve">What is Sopra Steria, what sopra steria does,  tell me about sopra steria</t>
+    <t xml:space="preserve">about, describe, tell me about sopra steria</t>
   </si>
   <si>
     <t xml:space="preserve"> A European leader in digital transformation, provides one of the most comprehensive portfolios of end-to-end service offerings on the market: consulting, systems integration, software development, infrastructure management and business process services.
@@ -163,7 +172,7 @@
     <t xml:space="preserve">Solutions</t>
   </si>
   <si>
-    <t xml:space="preserve">What are the solutions you provide, how can you help me in my business, what do you provide, what are the solutions you offer</t>
+    <t xml:space="preserve">What are the solutions you provide, how can you help me, what do you provide, what are the solutions you offer</t>
   </si>
   <si>
     <t xml:space="preserve">We provide various solutions catering to your business needs- 1) Consulting, 2) Testing, 3) Software, 4) Applications Management, 5) Business Process Services.
@@ -172,10 +181,10 @@
 PLM-CIMPA Infrastructure Management and  Systems integration</t>
   </si>
   <si>
-    <t xml:space="preserve">Carrier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">how can i get a job at sopra steria, current openings, carrier, placement, how can i get placed at sopra, hiring recruitment</t>
+    <t xml:space="preserve">Career</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how can i get a job at sopra steria, current openings, career, placement, how can i get placed at sopra, hiring recruitment</t>
   </si>
   <si>
     <t xml:space="preserve">You can ask your queriers regarding carrier opening at sopra steria from my friend at - http://sopra-chatbot.herokuapp.com/</t>
@@ -262,7 +271,7 @@
     <t xml:space="preserve">Consulting</t>
   </si>
   <si>
-    <t xml:space="preserve">tell me about consulting division of sopra steria, do you offer consulting serivce, what is the consulting division of sopra steria, i need consultation can you help me</t>
+    <t xml:space="preserve">tell me about consulting division of sopra steria, do you offer consulting serivce, what is the consulting division of sopra steria, i need consultation can you help me,  do you provide consulting</t>
   </si>
   <si>
     <t xml:space="preserve">Sopra Steria Consulting is the advisory brand of Sopra Steria. As a privileged partner, our aim is to help large companies and public bodies reach new levels in their development and competitiveness.
@@ -291,7 +300,7 @@
     <t xml:space="preserve">Greeting</t>
   </si>
   <si>
-    <t xml:space="preserve">hello, how are you, hi, hey</t>
+    <t xml:space="preserve">hello, hi, hey,hii, howdy</t>
   </si>
   <si>
     <t xml:space="preserve">Hi, Ask me anything you want about Sopra Steria. Ill try my best to give you correct ans.</t>
@@ -344,7 +353,7 @@
     <t xml:space="preserve">iot</t>
   </si>
   <si>
-    <t xml:space="preserve">how can internet of things help me, what is the use of IOT, do you have experience in internet of things</t>
+    <t xml:space="preserve">how can internet of things help me, what is the use of IOT, do you have experience in internet of things, how can sopra steria help me in iot</t>
   </si>
   <si>
     <t xml:space="preserve">For Sopra Steria, the Internet of Things is the missing link between the real and virtual worlds and a key ingredient in its clients' digital transformation. Sopra Steria thereby supports its clients all the way along the IoT value chain as it sets up new business models: innovation, consulting, development, integration, mass production, and maintaining operational conditions, notably via two strategies:
@@ -646,18 +655,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.7755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.4897959183674"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,28 +683,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -731,34 +740,34 @@
       <c r="C6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="159.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="148.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="159.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="272.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="148.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>27</v>
       </c>
@@ -769,7 +778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="181.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="272.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>30</v>
       </c>
@@ -779,29 +788,29 @@
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="2" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="181.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="91.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="B11" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="91.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -823,22 +832,22 @@
       <c r="B14" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="102.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="102.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>49</v>
       </c>
@@ -849,68 +858,68 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="2" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="272.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="B19" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="2" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="272.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="B20" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="D20" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="260.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>66</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="0" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="125.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="260.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>69</v>
       </c>
@@ -921,7 +930,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="316.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="125.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>72</v>
       </c>
@@ -932,7 +941,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="204.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="316.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>75</v>
       </c>
@@ -943,7 +952,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="260.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="204.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>78</v>
       </c>
@@ -954,7 +963,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="238.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="260.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>81</v>
       </c>
@@ -964,51 +973,51 @@
       <c r="C26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="0" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="238.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="272.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="B27" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="2" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="272.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="238.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="B28" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="2" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="238.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="114.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="B29" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="260.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
+    <row r="30" customFormat="false" ht="114.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>96</v>
       </c>
       <c r="B30" s="0" t="s">
@@ -1017,34 +1026,45 @@
       <c r="C30" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="2" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="260.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="B31" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="D31" s="2" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://www.soprasteria.com/en/"/>
-    <hyperlink ref="D6" r:id="rId2" display="https://www.soprasteria.com/en/group/locations"/>
-    <hyperlink ref="D10" r:id="rId3" display="https://www.soprasteria.com/en/solutions/software"/>
-    <hyperlink ref="C12" r:id="rId4" display="You can ask your queriers regarding carrier opening at sopra steria from my friend at - http://sopra-chatbot.herokuapp.com/"/>
-    <hyperlink ref="C13" r:id="rId5" display="Pierre Pasquier is the founder and chairman of Sopra Steria. You can know more about him from- https://en.wikipedia.org/wiki/Pierre_Pasquier"/>
-    <hyperlink ref="C14" r:id="rId6" display="Sopra was merged with Steria in 2014.&#10;Here is our combined brief history-&#10;1968&#10;Sopra founded&#10;1969&#10;Steria founded&#10;1971-1991&#10;Banking savoir-faire initiated with the signing of the 1st major contract designed to manage banking operations in real time.&#10;Created for the AFP (Agence France Presse) an IT system designed to transmit information in real time.&#10;IPO on the French stock exchange...&#10;1991-2014&#10;Designed and built the central command system for interbank payments.&#10;Acquisition of SG2 Ingénierie and significant acceleration of growth in France.&#10;Created the company Axway Software and then successively acquired Viewlocity, Cyclone Commerce and Tumbleweed Communications in the United States.&#10;And many other  things....&#10;March 2014&#10;Announcement of the project of friendly tie-up between Sopra and Steria&#10;September 2014&#10;Creation of Sopra Steria Group: European leader in digital transformation&#10;Success of Sopra’s friendly Public Exchange Offer for Steria&#10;January 2015&#10;Formation of the Sopra HR Software subsidiary&#10;Groupe Steria Share Delisted from Euronext Paris&#10;Merger by absorption of Groupe Steria into Sopra Steria Group&#10; &#10;you can find our full history at-&#10;https://www.soprasteria.com/en/group/history"/>
-    <hyperlink ref="D18" r:id="rId7" display="https://www.soprasteria.com/en/solutions/consulting"/>
-    <hyperlink ref="D19" r:id="rId8" display="https://www.soprasteria.com/en/solutions/testing"/>
-    <hyperlink ref="D27" r:id="rId9" display="https://www.soprasteria.com/en/offerings/smart-cities"/>
-    <hyperlink ref="D28" r:id="rId10" display="https://www.soprasteria.com/en/offerings/cloud"/>
-    <hyperlink ref="D30" r:id="rId11" display="https://www.soprasteria.com/en/solutions/business-process-services"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://www.soprasteria.com/en/"/>
+    <hyperlink ref="D7" r:id="rId2" display="https://www.soprasteria.com/en/group/locations"/>
+    <hyperlink ref="D11" r:id="rId3" display="https://www.soprasteria.com/en/solutions/software"/>
+    <hyperlink ref="C13" r:id="rId4" display="You can ask your queriers regarding carrier opening at sopra steria from my friend at - http://sopra-chatbot.herokuapp.com/"/>
+    <hyperlink ref="C14" r:id="rId5" display="Pierre Pasquier is the founder and chairman of Sopra Steria. You can know more about him from- https://en.wikipedia.org/wiki/Pierre_Pasquier"/>
+    <hyperlink ref="C15" r:id="rId6" display="Sopra was merged with Steria in 2014.&#10;Here is our combined brief history-&#10;1968&#10;Sopra founded&#10;1969&#10;Steria founded&#10;1971-1991&#10;Banking savoir-faire initiated with the signing of the 1st major contract designed to manage banking operations in real time.&#10;Created for the AFP (Agence France Presse) an IT system designed to transmit information in real time.&#10;IPO on the French stock exchange...&#10;1991-2014&#10;Designed and built the central command system for interbank payments.&#10;Acquisition of SG2 Ingénierie and significant acceleration of growth in France.&#10;Created the company Axway Software and then successively acquired Viewlocity, Cyclone Commerce and Tumbleweed Communications in the United States.&#10;And many other  things....&#10;March 2014&#10;Announcement of the project of friendly tie-up between Sopra and Steria&#10;September 2014&#10;Creation of Sopra Steria Group: European leader in digital transformation&#10;Success of Sopra’s friendly Public Exchange Offer for Steria&#10;January 2015&#10;Formation of the Sopra HR Software subsidiary&#10;Groupe Steria Share Delisted from Euronext Paris&#10;Merger by absorption of Groupe Steria into Sopra Steria Group&#10; &#10;you can find our full history at-&#10;https://www.soprasteria.com/en/group/history"/>
+    <hyperlink ref="D19" r:id="rId7" display="https://www.soprasteria.com/en/solutions/consulting"/>
+    <hyperlink ref="D20" r:id="rId8" display="https://www.soprasteria.com/en/solutions/testing"/>
+    <hyperlink ref="D28" r:id="rId9" display="https://www.soprasteria.com/en/offerings/smart-cities"/>
+    <hyperlink ref="D29" r:id="rId10" display="https://www.soprasteria.com/en/offerings/cloud"/>
+    <hyperlink ref="D31" r:id="rId11" display="https://www.soprasteria.com/en/solutions/business-process-services"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/chat_ml/Data/chatbotdata.xlsx
+++ b/chat_ml/Data/chatbotdata.xlsx
@@ -59,7 +59,7 @@
     <t xml:space="preserve">strength</t>
   </si>
   <si>
-    <t xml:space="preserve">How many employees work in sopra steria ,what is the strength of sopra steria, how many people work here, no of people working in sopra steria</t>
+    <t xml:space="preserve">How many employees work in sopra steria ,what is the strength of sopra steria, how many people work here, no of people working in sopra steria, tell me about strength</t>
   </si>
   <si>
     <t xml:space="preserve">We have 40,000 employees in more than 20 countries</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">revenue</t>
   </si>
   <si>
-    <t xml:space="preserve">What is the revenue of sopra steria,how much sopra steria earned</t>
+    <t xml:space="preserve">What is the revenue of sopra steria,how much sopra steria earned, tell me about revenue</t>
   </si>
   <si>
     <t xml:space="preserve">Sopra Steria generated revenue of €3.7 billion in 2016.</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">full_form</t>
   </si>
   <si>
-    <t xml:space="preserve">What is the full form of sopra steria, is sopra an acronym, what sopra stands for</t>
+    <t xml:space="preserve">What is the full form of sopra steria, is sopra an acronym, what sopra stands for, tell me about full form</t>
   </si>
   <si>
     <t xml:space="preserve">Society Of Programmers Researchers and Analysts</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">markets/domain</t>
   </si>
   <si>
-    <t xml:space="preserve">what domains you work on, who are your clients, what are your markets, areas of your work</t>
+    <t xml:space="preserve">what domains you work on, who are your clients, what are your markets, areas of your work, tell me about markets, tell me about domains</t>
   </si>
   <si>
     <t xml:space="preserve">We have clients in the domains of-
@@ -118,7 +118,7 @@
     <t xml:space="preserve">offerings</t>
   </si>
   <si>
-    <t xml:space="preserve">What services sopra steria offers, what is your work profile, what are your offerings</t>
+    <t xml:space="preserve">What services sopra steria offers, what is your work profile, what are your offerings, tell me about offerings</t>
   </si>
   <si>
     <t xml:space="preserve">Sopra steria offers services in -
@@ -154,7 +154,7 @@
     <t xml:space="preserve">Software</t>
   </si>
   <si>
-    <t xml:space="preserve">what are the softwares made by sopra steria, what are the products of sopra steria, Tell me about softwares,what does sopra steria make,what are the softwares you offer</t>
+    <t xml:space="preserve">what are the softwares made by sopra steria, what are the products of sopra steria, tell me about softwares,what does sopra steria make,what are the softwares you offer</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -172,7 +172,7 @@
     <t xml:space="preserve">Solutions</t>
   </si>
   <si>
-    <t xml:space="preserve">What are the solutions you provide, how can you help me, what do you provide, what are the solutions you offer</t>
+    <t xml:space="preserve">What are the solutions you provide, how can you help me, what do you provide, what are the solutions you offer, tell me about solutions</t>
   </si>
   <si>
     <t xml:space="preserve">We provide various solutions catering to your business needs- 1) Consulting, 2) Testing, 3) Software, 4) Applications Management, 5) Business Process Services.
@@ -184,16 +184,16 @@
     <t xml:space="preserve">Career</t>
   </si>
   <si>
-    <t xml:space="preserve">how can i get a job at sopra steria, current openings, career, placement, how can i get placed at sopra, hiring recruitment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can ask your queriers regarding carrier opening at sopra steria from my friend at - http://sopra-chatbot.herokuapp.com/</t>
+    <t xml:space="preserve">how can i get a job at sopra steria, current openings, career, placement, how can i get placed at sopra, hiring recruitment, tell me about carrers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can ask the queries related to career opening at Sopra Steria from my fellow chat app-  http://sopra-chatbot.herokuapp.com/</t>
   </si>
   <si>
     <t xml:space="preserve">founder</t>
   </si>
   <si>
-    <t xml:space="preserve">Who is the chairman of sopra steria, who leads sopra steria,who is the founder of sopra, who started sopra</t>
+    <t xml:space="preserve">Who is the chairman of sopra steria, who leads sopra steria,who is the founder of sopra, who started sopra, tell me about founder</t>
   </si>
   <si>
     <t xml:space="preserve">Pierre Pasquier is the founder and chairman of Sopra Steria. You can know more about him from- https://en.wikipedia.org/wiki/Pierre_Pasquier</t>
@@ -202,7 +202,7 @@
     <t xml:space="preserve">history</t>
   </si>
   <si>
-    <t xml:space="preserve">when was sopra steria founded, when the merger of sopra and steria happened, history of sopra steria, milestones,when was sopra steria started, when was sopra steria founded</t>
+    <t xml:space="preserve">when was sopra steria founded, when the merger of sopra and steria happened, history of sopra steria, milestones,when was sopra steria started, when was sopra steria founded, tell me about history</t>
   </si>
   <si>
     <t xml:space="preserve">Sopra was merged with Steria in 2014.
@@ -236,7 +236,7 @@
     <t xml:space="preserve">Corporate_Social_Responsibility</t>
   </si>
   <si>
-    <t xml:space="preserve">corporate social responsibility, csr, what does sopra steria do for social responsibility</t>
+    <t xml:space="preserve">corporate social responsibility, csr, what does sopra steria do for social responsibility,tell me about csr</t>
   </si>
   <si>
     <t xml:space="preserve">Sopra Steria makes two major commitments in its Solidarity policy: 
@@ -251,7 +251,7 @@
     <t xml:space="preserve">delivery_model</t>
   </si>
   <si>
-    <t xml:space="preserve">delivery model, delivery network, how do you deliver your products</t>
+    <t xml:space="preserve">delivery model, delivery network, how do you deliver your products, tell me about delivery model</t>
   </si>
   <si>
     <t xml:space="preserve">In order to support customers’ ambitious projects, Sopra Steria has developed a Global Delivery network across France, the United Kingdom, India and Spain.
@@ -271,7 +271,7 @@
     <t xml:space="preserve">Consulting</t>
   </si>
   <si>
-    <t xml:space="preserve">tell me about consulting division of sopra steria, do you offer consulting serivce, what is the consulting division of sopra steria, i need consultation can you help me,  do you provide consulting</t>
+    <t xml:space="preserve">tell me about consulting division of sopra steria, do you offer consulting serivce, what is the consulting division of sopra steria, i need consultation can you help me,  do you provide consulting,tell me about consulting</t>
   </si>
   <si>
     <t xml:space="preserve">Sopra Steria Consulting is the advisory brand of Sopra Steria. As a privileged partner, our aim is to help large companies and public bodies reach new levels in their development and competitiveness.
@@ -284,7 +284,7 @@
     <t xml:space="preserve">Testing</t>
   </si>
   <si>
-    <t xml:space="preserve">What testing services sopra steria offers, tell me about testing division, what testing stategy sopra steria follows, quality assuarance services</t>
+    <t xml:space="preserve">What testing services sopra steria offers, tell me about testing division, what testing stategy sopra steria follows, quality assuarance services,tell me about testing</t>
   </si>
   <si>
     <t xml:space="preserve">With RightTesting®, Sopra Steria, one of the leaders in the testing market, offers a comprehensive, three-phase approach:
@@ -309,7 +309,7 @@
     <t xml:space="preserve">Social_Business</t>
   </si>
   <si>
-    <t xml:space="preserve">what do you do  in social business, what is social business, social networks, social information</t>
+    <t xml:space="preserve">what do you do  in social business, what is social business, social networks, social information, tell me about social business</t>
   </si>
   <si>
     <t xml:space="preserve">Sopra Steria designs and deploys corporate social networks in response to specific issues:
@@ -325,7 +325,7 @@
     <t xml:space="preserve">mobility</t>
   </si>
   <si>
-    <t xml:space="preserve">What do you do in mobility, can you help me in mobile applications, do you make android applications, do you offer mobile software management</t>
+    <t xml:space="preserve">What do you do in mobility, can you help me in mobile applications, do you make android applications, do you offer mobile software management, tell me about mobility</t>
   </si>
   <si>
     <t xml:space="preserve">The Sopra Steria Mobility offer is based around the entire Mobile Experience life cycle: innovation, strategy, ergonomics and styling, business-line support, integration of mobile software packages, design, development, deployment, maintenance and supervision of applications. Optimisation of mobile working process: M-Conseiller, Bring Your Own Device, Choose Your Own Device and Corporate-Owned Personally-Enabled
@@ -335,7 +335,7 @@
     <t xml:space="preserve">big_data</t>
   </si>
   <si>
-    <t xml:space="preserve">what is big data, tell me about big data, do you work in the domain of big data, how can big data  help me.</t>
+    <t xml:space="preserve">what is big data, tell me about big data, do you work in the domain of big data, how can big data  help me.,tell me about big data</t>
   </si>
   <si>
     <t xml:space="preserve">The Sopra Steria Big Data offer covers two complementary fields of activity: 
@@ -353,7 +353,7 @@
     <t xml:space="preserve">iot</t>
   </si>
   <si>
-    <t xml:space="preserve">how can internet of things help me, what is the use of IOT, do you have experience in internet of things, how can sopra steria help me in iot</t>
+    <t xml:space="preserve">how can internet of things help me, what is the use of IOT, do you have experience in internet of things, how can sopra steria help me in iot, tell me about iot</t>
   </si>
   <si>
     <t xml:space="preserve">For Sopra Steria, the Internet of Things is the missing link between the real and virtual worlds and a key ingredient in its clients' digital transformation. Sopra Steria thereby supports its clients all the way along the IoT value chain as it sets up new business models: innovation, consulting, development, integration, mass production, and maintaining operational conditions, notably via two strategies:
@@ -365,7 +365,7 @@
     <t xml:space="preserve">cybersecurity</t>
   </si>
   <si>
-    <t xml:space="preserve">cybersecurity, cyber security, what are the services you provide under cyber security</t>
+    <t xml:space="preserve">cybersecurity, cyber security, what are the services you provide under cyber security,tell me about cybersecurity</t>
   </si>
   <si>
     <t xml:space="preserve">Sopra Steria helps organisations to excel in cyber security and instil digital trust to protect their sensitive information and accelerate their digital development.
@@ -380,7 +380,7 @@
     <t xml:space="preserve">erp</t>
   </si>
   <si>
-    <t xml:space="preserve">erp, enterprise resource planning, i need erp consulting,how can you help me with enterprise resource planning</t>
+    <t xml:space="preserve">erp, enterprise resource planning, i need erp consulting,how can you help me with enterprise resource planning,tell me about erp</t>
   </si>
   <si>
     <t xml:space="preserve">At the heart of the company's administrative and financial management, your ERP must continuously adapt to new management challenges:
@@ -397,7 +397,7 @@
     <t xml:space="preserve">smart_city</t>
   </si>
   <si>
-    <t xml:space="preserve">what is smart city, smart city</t>
+    <t xml:space="preserve">what is smart city, smart city,tell me about smart cities</t>
   </si>
   <si>
     <t xml:space="preserve">Sopra Steria offers a full range of services, including: consulting, systems integration, software solutions and managed services.
@@ -415,7 +415,7 @@
     <t xml:space="preserve">cloud</t>
   </si>
   <si>
-    <t xml:space="preserve">do you provide cloud services, what is beamap, cloud</t>
+    <t xml:space="preserve">do you provide cloud services, what is beamap, cloud,tell me about cloud</t>
   </si>
   <si>
     <t xml:space="preserve">Sopra Steria, with its subsidiary Beamap (a consulting firm specialising in Cloud), supports and handles this major digital transformation for clients.
@@ -434,7 +434,7 @@
     <t xml:space="preserve">banking</t>
   </si>
   <si>
-    <t xml:space="preserve">what is sopra banking, do you have banking products, where are your banking products used, do you make banking software</t>
+    <t xml:space="preserve">what is sopra banking, do you have banking products, where are your banking products used, do you make banking softwaretell me about banking software</t>
   </si>
   <si>
     <t xml:space="preserve">Sopra Banking Software, a subsidiary of Sopra Steria, provides global solutions including software, systems integration, support, and associated consulting services.
@@ -444,7 +444,7 @@
     <t xml:space="preserve">Business_Process_Services</t>
   </si>
   <si>
-    <t xml:space="preserve">do you provide business process services, bps</t>
+    <t xml:space="preserve">do you provide business process services, bps,tell me about bps</t>
   </si>
   <si>
     <t xml:space="preserve">The Sopra Steria Business Process Services (BPS) offer is a relevant and innovative answer to your search for performance. We are an experienced partner in the operation of business processes and functions, in part or in full. We enable you to optimise operations, rationalise costs and introduce greater flexibility in the management of certain functions. This makes our BPS offering a real lever for transformation, whilst freeing up your company to focus on its core business. 
@@ -553,7 +553,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -567,6 +567,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -657,16 +661,14 @@
   </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.8061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.9132653061225"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -821,7 +823,7 @@
       <c r="B13" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -843,7 +845,7 @@
       <c r="B15" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1028,7 +1030,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="260.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B31" s="0" t="s">
@@ -1057,7 +1059,7 @@
     <hyperlink ref="D3" r:id="rId1" display="https://www.soprasteria.com/en/"/>
     <hyperlink ref="D7" r:id="rId2" display="https://www.soprasteria.com/en/group/locations"/>
     <hyperlink ref="D11" r:id="rId3" display="https://www.soprasteria.com/en/solutions/software"/>
-    <hyperlink ref="C13" r:id="rId4" display="You can ask your queriers regarding carrier opening at sopra steria from my friend at - http://sopra-chatbot.herokuapp.com/"/>
+    <hyperlink ref="C13" r:id="rId4" display="You can ask the queries related to career opening at Sopra Steria from my fellow chat app-  http://sopra-chatbot.herokuapp.com/"/>
     <hyperlink ref="C14" r:id="rId5" display="Pierre Pasquier is the founder and chairman of Sopra Steria. You can know more about him from- https://en.wikipedia.org/wiki/Pierre_Pasquier"/>
     <hyperlink ref="C15" r:id="rId6" display="Sopra was merged with Steria in 2014.&#10;Here is our combined brief history-&#10;1968&#10;Sopra founded&#10;1969&#10;Steria founded&#10;1971-1991&#10;Banking savoir-faire initiated with the signing of the 1st major contract designed to manage banking operations in real time.&#10;Created for the AFP (Agence France Presse) an IT system designed to transmit information in real time.&#10;IPO on the French stock exchange...&#10;1991-2014&#10;Designed and built the central command system for interbank payments.&#10;Acquisition of SG2 Ingénierie and significant acceleration of growth in France.&#10;Created the company Axway Software and then successively acquired Viewlocity, Cyclone Commerce and Tumbleweed Communications in the United States.&#10;And many other  things....&#10;March 2014&#10;Announcement of the project of friendly tie-up between Sopra and Steria&#10;September 2014&#10;Creation of Sopra Steria Group: European leader in digital transformation&#10;Success of Sopra’s friendly Public Exchange Offer for Steria&#10;January 2015&#10;Formation of the Sopra HR Software subsidiary&#10;Groupe Steria Share Delisted from Euronext Paris&#10;Merger by absorption of Groupe Steria into Sopra Steria Group&#10; &#10;you can find our full history at-&#10;https://www.soprasteria.com/en/group/history"/>
     <hyperlink ref="D19" r:id="rId7" display="https://www.soprasteria.com/en/solutions/consulting"/>

--- a/chat_ml/Data/chatbotdata.xlsx
+++ b/chat_ml/Data/chatbotdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t xml:space="preserve">Intent</t>
   </si>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">About</t>
   </si>
   <si>
-    <t xml:space="preserve">about, describe, tell me about sopra steria</t>
+    <t xml:space="preserve">about, describe, tell me about sopra steria,what is the main purpose of the company,goal,aim, what is sopra steria, what does sopra steria do</t>
   </si>
   <si>
     <t xml:space="preserve"> A European leader in digital transformation, provides one of the most comprehensive portfolios of end-to-end service offerings on the market: consulting, systems integration, software development, infrastructure management and business process services.
@@ -140,7 +140,7 @@
     <t xml:space="preserve">What are application management services , what do you  offer in application management services,Does sopra steria offer application management, tell me about application management</t>
   </si>
   <si>
-    <t xml:space="preserve">We offer our clients the following:
+    <t xml:space="preserve">We offer our clients the following in application management:
     1) Proximity: an extended network of service centres to be ever closer to our customers, 
     2) Agility: a pragmatic approach that allows for short development cycles and regular, safe production runs (Devops), 
     3) Commitment: technical and business KPIs (key performance indicators) aligned with your business challenges, 
@@ -154,7 +154,7 @@
     <t xml:space="preserve">Software</t>
   </si>
   <si>
-    <t xml:space="preserve">what are the softwares made by sopra steria, what are the products of sopra steria, tell me about softwares,what does sopra steria make,what are the softwares you offer</t>
+    <t xml:space="preserve">what are the softwares made by sopra steria, what are the products of sopra steria, tell me about softwares,what does sopra steria make,what are the softwares you offer, what are your specialization, specialisation, why should i choose you, benefits of choosing sopra steria</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -172,7 +172,7 @@
     <t xml:space="preserve">Solutions</t>
   </si>
   <si>
-    <t xml:space="preserve">What are the solutions you provide, how can you help me, what do you provide, what are the solutions you offer, tell me about solutions</t>
+    <t xml:space="preserve">What are the solutions you provide, how can you help me, what do you provide, what are the solutions you offer, tell me about solutions, what can you do for me, what can you do for my business</t>
   </si>
   <si>
     <t xml:space="preserve">We provide various solutions catering to your business needs- 1) Consulting, 2) Testing, 3) Software, 4) Applications Management, 5) Business Process Services.
@@ -465,6 +465,27 @@
   </si>
   <si>
     <t xml:space="preserve">I apologise if you are not getting what you want. You can type ‘help’ to get a list of all the topics I have knowledge of. Do check for spelling mistakes in your query.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how can i contact you, contactdetails, how can i fix a meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can mail us at- contact-corp@soprasteria.com. Follow us on Twitter- @SopraSteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corporate_Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">life at sopra steria,benefits of joining , activities, facilities, rewards, talent development, why should i work at sopra steria, gym, creche, corporate life, how sopra helps employees, is sopra a good place to work, career development, culture, individual growth, training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is vital for the success of the Sopra Steria Group that the career aspirations of team members are anticipated and managed correctly, to meet this need we have a clearly defined job repository which helps employee know what is required of them and have a clear view of potential career paths. 1) Rewards &amp; Recognition 
+-Awards are given to an employee in recognition of length of service, quality of work performed, or for major achievements within the company. 2) Talent development 
+-Sopra Steria hires the best people and help them become even better at what they do by providing a customized training and development program to the team members based on their goals and abilities 3) Employee benefits-
+At Sopra Steria, we believe that happier employees make for a stronger association. We have a state-of-the-art facility like Gym, Creche for working parents, Library, Recreation zone for an all round development of our employees. 4) We believe in Equal Opportunities- We will never tolerate discrimination or harassment based on sex, color, marital status, civil partnerships, having or not having dependants, nationality, ethnic or national origin, religious belief, political opinion, sexual orientation, age, disability or any other relevant category.</t>
   </si>
 </sst>
 </file>
@@ -659,16 +680,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.9132653061225"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.2704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -696,7 +717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -757,7 +778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="159.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>24</v>
       </c>
@@ -780,7 +801,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="272.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="294.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>30</v>
       </c>
@@ -1052,6 +1073,28 @@
       </c>
       <c r="C32" s="0" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="47.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1067,6 +1110,7 @@
     <hyperlink ref="D28" r:id="rId9" display="https://www.soprasteria.com/en/offerings/smart-cities"/>
     <hyperlink ref="D29" r:id="rId10" display="https://www.soprasteria.com/en/offerings/cloud"/>
     <hyperlink ref="D31" r:id="rId11" display="https://www.soprasteria.com/en/solutions/business-process-services"/>
+    <hyperlink ref="C33" r:id="rId12" display="You can mail us at- contact-corp@soprasteria.com. Follow us on Twitter- @SopraSteria"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
